--- a/04.沟通汇报/2.汇报机制/2.周报/QDCH_WEEKLY_20171009-1013.xlsx
+++ b/04.沟通汇报/2.汇报机制/2.周报/QDCH_WEEKLY_20171009-1013.xlsx
@@ -1246,7 +1246,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
